--- a/Programak/emaitzak/emaitzak_20221011.xlsx
+++ b/Programak/emaitzak/emaitzak_20221011.xlsx
@@ -6,10 +6,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvehueus-my.sharepoint.com/personal/aruiz258_ikasle_ehu_eus/Documents/DM/Lana/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvehueus-my.sharepoint.com/personal/aruiz258_ikasle_ehu_eus/Documents/DM/Lana/Programak/emaitzak/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{1181BE8F-35CD-4942-A73D-DAE9800F7E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0BCE4A6-2D43-4E5A-8692-7729D5C692D1}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:40009_{1181BE8F-35CD-4942-A73D-DAE9800F7E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{918CCB54-5543-4246-A24A-6887105025AD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="85">
   <si>
     <t>1-NN</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>Aukeratutako imagefilter eta sailkatzaileak</t>
+  </si>
+  <si>
+    <t>BATEZBESTEKOA</t>
   </si>
 </sst>
 </file>
@@ -1426,7 +1429,7 @@
   <dimension ref="A1:W62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Y68" sqref="Y68"/>
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1515,7 +1518,7 @@
         <v>14</v>
       </c>
       <c r="W1" s="23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -3890,7 +3893,7 @@
         <v>0.35576923076923</v>
       </c>
       <c r="W34" s="18">
-        <f t="shared" ref="W34:W65" si="1">AVERAGE(B34:V34)</f>
+        <f t="shared" ref="W34:W61" si="1">AVERAGE(B34:V34)</f>
         <v>0.67799908424908362</v>
       </c>
     </row>
@@ -5840,7 +5843,7 @@
     </row>
     <row r="62" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A62" s="27" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B62" s="17">
         <f t="shared" ref="B62:V62" si="2">AVERAGE(B2:B61)</f>
